--- a/SimpleTransposition/Дайте как я потуплю как следует.xlsx
+++ b/SimpleTransposition/Дайте как я потуплю как следует.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vit\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vit\Source\Repos\SymmetricCryptographicAlgorithms\SimpleTransposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{681916C5-DBAF-4515-872D-BA7DB1D8F80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F18430-F42B-40CF-9B96-1B234DC593AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9D4CFE4-FC4D-4AFF-BF38-49A1FA91009E}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0A51FC-CE01-42C2-9CB5-C0E768D40AAA}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>0</v>
       </c>
@@ -506,8 +506,17 @@
       <c r="D17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -520,8 +529,20 @@
       <c r="D18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -534,8 +555,20 @@
       <c r="D19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -548,8 +581,20 @@
       <c r="D20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -562,8 +607,20 @@
       <c r="D21">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -574,6 +631,18 @@
         <v>9</v>
       </c>
       <c r="D22">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>13</v>
+      </c>
+      <c r="K22">
         <v>14</v>
       </c>
     </row>

--- a/SimpleTransposition/Дайте как я потуплю как следует.xlsx
+++ b/SimpleTransposition/Дайте как я потуплю как следует.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vit\Source\Repos\SymmetricCryptographicAlgorithms\SimpleTransposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F18430-F42B-40CF-9B96-1B234DC593AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B22EDE-999D-4E9A-B86A-D87EC2AB421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9D4CFE4-FC4D-4AFF-BF38-49A1FA91009E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>H</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t xml:space="preserve">H deW lo lr ol </t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -100,9 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0A51FC-CE01-42C2-9CB5-C0E768D40AAA}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -436,7 +443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -447,7 +454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -458,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -469,7 +476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -480,7 +487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -491,12 +498,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
       <c r="B17" s="1">
         <v>0</v>
       </c>
@@ -506,17 +533,20 @@
       <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -529,20 +559,20 @@
       <c r="D18">
         <v>10</v>
       </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -555,20 +585,20 @@
       <c r="D19">
         <v>11</v>
       </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -581,20 +611,20 @@
       <c r="D20">
         <v>12</v>
       </c>
-      <c r="H20" s="1">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>6</v>
-      </c>
-      <c r="J20">
-        <v>7</v>
-      </c>
-      <c r="K20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -607,20 +637,20 @@
       <c r="D21">
         <v>13</v>
       </c>
-      <c r="H21" s="1">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>9</v>
-      </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
-      <c r="K21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -633,18 +663,32 @@
       <c r="D22">
         <v>14</v>
       </c>
-      <c r="H22" s="1">
-        <v>4</v>
-      </c>
-      <c r="I22">
-        <v>12</v>
-      </c>
-      <c r="J22">
-        <v>13</v>
-      </c>
-      <c r="K22">
-        <v>14</v>
-      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SimpleTransposition/Дайте как я потуплю как следует.xlsx
+++ b/SimpleTransposition/Дайте как я потуплю как следует.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vit\Source\Repos\SymmetricCryptographicAlgorithms\SimpleTransposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B22EDE-999D-4E9A-B86A-D87EC2AB421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CD9DB6-2617-454F-BFA7-495D7362B8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9D4CFE4-FC4D-4AFF-BF38-49A1FA91009E}"/>
+    <workbookView xWindow="16215" yWindow="1230" windowWidth="12045" windowHeight="13530" xr2:uid="{B9D4CFE4-FC4D-4AFF-BF38-49A1FA91009E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>H</t>
   </si>
@@ -64,6 +64,36 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Hello World</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>061728495</t>
   </si>
 </sst>
 </file>
@@ -106,10 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,10 +458,13 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
@@ -442,15 +476,34 @@
       <c r="D1" s="1">
         <v>2</v>
       </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -458,10 +511,20 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -469,10 +532,20 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -480,10 +553,20 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -491,15 +574,31 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -507,10 +606,10 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -533,10 +632,19 @@
       <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -559,10 +667,19 @@
       <c r="D18">
         <v>10</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -580,15 +697,24 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>11</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -603,18 +729,27 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>12</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -629,18 +764,27 @@
         <v>3</v>
       </c>
       <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1">
         <v>3</v>
       </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>13</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>11</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -655,18 +799,27 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>14</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>13</v>
+      </c>
+      <c r="K22">
+        <v>14</v>
+      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>

--- a/SimpleTransposition/Дайте как я потуплю как следует.xlsx
+++ b/SimpleTransposition/Дайте как я потуплю как следует.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vit\Source\Repos\SymmetricCryptographicAlgorithms\SimpleTransposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CD9DB6-2617-454F-BFA7-495D7362B8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6483C9DD-BEBD-41EE-A7F3-0533B5B747FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16215" yWindow="1230" windowWidth="12045" windowHeight="13530" xr2:uid="{B9D4CFE4-FC4D-4AFF-BF38-49A1FA91009E}"/>
   </bookViews>
@@ -110,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +120,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,11 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,7 +465,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +542,7 @@
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="3"/>

--- a/SimpleTransposition/Дайте как я потуплю как следует.xlsx
+++ b/SimpleTransposition/Дайте как я потуплю как следует.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vit\Source\Repos\SymmetricCryptographicAlgorithms\SimpleTransposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6483C9DD-BEBD-41EE-A7F3-0533B5B747FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A73AC5-CA24-4EEF-BF99-824C47F90227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16215" yWindow="1230" windowWidth="12045" windowHeight="13530" xr2:uid="{B9D4CFE4-FC4D-4AFF-BF38-49A1FA91009E}"/>
   </bookViews>
@@ -110,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,14 +123,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,16 +132,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0A51FC-CE01-42C2-9CB5-C0E768D40AAA}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +496,7 @@
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -483,17 +506,18 @@
       <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="I1" s="1">
-        <v>0</v>
-      </c>
+      <c r="E1" s="2"/>
       <c r="J1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -504,17 +528,18 @@
         <v>15</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="E2" s="3"/>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -525,17 +550,18 @@
         <v>16</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="E3" s="3"/>
+      <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -546,17 +572,18 @@
         <v>17</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="E4" s="3"/>
+      <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -567,17 +594,24 @@
         <v>18</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="H5" s="1">
+      <c r="E5" s="3"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
       <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -586,38 +620,120 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="H6" s="1">
+      <c r="E6" s="3"/>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I8" t="s">
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+      <c r="F8" s="5">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+      <c r="F9" s="5">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I10" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="5">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="J10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+      <c r="F11" s="5">
+        <v>6</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+      <c r="F12" s="5">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+      <c r="F13" s="5">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+      <c r="F14" s="5">
+        <v>9</v>
+      </c>
+      <c r="G14" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+      <c r="F15" s="5">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="I16" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="5">
+        <v>11</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="2"/>
+      <c r="J16" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -625,8 +741,9 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -639,20 +756,26 @@
       <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="5">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>2</v>
-      </c>
-      <c r="L17" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -660,8 +783,9 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -674,20 +798,24 @@
       <c r="D18">
         <v>10</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="E18" s="3"/>
+      <c r="F18" s="5">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>5</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>10</v>
       </c>
-      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -695,8 +823,9 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -709,20 +838,24 @@
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19">
+      <c r="E19" s="3"/>
+      <c r="F19" s="5">
+        <v>14</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
         <v>4</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>5</v>
       </c>
-      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -730,8 +863,9 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -744,20 +878,24 @@
       <c r="D20">
         <v>8</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="1">
-        <v>2</v>
-      </c>
-      <c r="I20">
+      <c r="E20" s="3"/>
+      <c r="F20" s="5">
+        <v>15</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20">
         <v>6</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>7</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>8</v>
       </c>
-      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -765,8 +903,9 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -779,20 +918,19 @@
       <c r="D21">
         <v>11</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1">
+      <c r="H21" s="2"/>
+      <c r="I21" s="1">
         <v>3</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>9</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>10</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>11</v>
       </c>
-      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -800,8 +938,9 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -814,20 +953,19 @@
       <c r="D22">
         <v>14</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1">
+      <c r="H22" s="2"/>
+      <c r="I22" s="1">
         <v>4</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>12</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>13</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>14</v>
       </c>
-      <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -835,9 +973,9 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H23" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -849,6 +987,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SimpleTransposition/Дайте как я потуплю как следует.xlsx
+++ b/SimpleTransposition/Дайте как я потуплю как следует.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vit\Source\Repos\SymmetricCryptographicAlgorithms\SimpleTransposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A73AC5-CA24-4EEF-BF99-824C47F90227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A433E97-3346-40F8-BDAA-23E22F9B85A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16215" yWindow="1230" windowWidth="12045" windowHeight="13530" xr2:uid="{B9D4CFE4-FC4D-4AFF-BF38-49A1FA91009E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9D4CFE4-FC4D-4AFF-BF38-49A1FA91009E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>H</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>061728495</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -124,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -140,6 +158,44 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -150,26 +206,40 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -485,18 +555,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0A51FC-CE01-42C2-9CB5-C0E768D40AAA}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -507,17 +580,20 @@
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F1" s="2"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="2"/>
+      <c r="M1" s="1">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -525,21 +601,26 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -547,21 +628,26 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -569,416 +655,517 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G19" si="0" xml:space="preserve"> 5 * MOD(I5,3) + TRUNC(I5/3)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5">
+        <f xml:space="preserve"> 5 * MOD(I7,3) + TRUNC(I7/3)</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="11">
+        <v>2</v>
+      </c>
+      <c r="J7" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="5">
+        <f t="shared" ref="G8:G19" si="1" xml:space="preserve"> 5 * MOD(I8,3) + TRUNC(I8/3)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="7">
+        <v>3</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I6" s="1">
+      <c r="H9" s="3"/>
+      <c r="I9" s="9">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E7" s="3"/>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E8" s="3"/>
-      <c r="F8" s="5">
-        <v>3</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E9" s="3"/>
-      <c r="F9" s="5">
-        <v>4</v>
-      </c>
-      <c r="G9" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J9" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="11">
         <v>5</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="J10" t="s">
+      <c r="J10" s="12">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E11" s="3"/>
-      <c r="F11" s="5">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="7">
         <v>6</v>
       </c>
-      <c r="G11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E12" s="3"/>
-      <c r="F12" s="5">
+      <c r="J11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H12" s="3"/>
+      <c r="I12" s="9">
+        <v>7</v>
+      </c>
+      <c r="J12" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E13" s="3"/>
-      <c r="F13" s="5">
+      <c r="J13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="7">
+        <v>9</v>
+      </c>
+      <c r="J14" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E14" s="3"/>
-      <c r="F14" s="5">
-        <v>9</v>
-      </c>
-      <c r="G14" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E15" s="3"/>
-      <c r="F15" s="5">
+      <c r="H15" s="3"/>
+      <c r="I15" s="9">
         <v>10</v>
       </c>
-      <c r="G15" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="J15" s="10">
         <v>8</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="11">
         <v>11</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="2"/>
-      <c r="J16" t="s">
+      <c r="J16" s="12">
+        <v>13</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="M16" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7">
+        <v>12</v>
+      </c>
+      <c r="J17" s="14">
+        <v>4</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5">
-        <v>12</v>
-      </c>
-      <c r="G17" s="7">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1">
-        <v>2</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="9">
+        <v>13</v>
+      </c>
+      <c r="J18" s="10">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>5</v>
       </c>
-      <c r="D18">
+      <c r="O18">
         <v>10</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5">
-        <v>13</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>10</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="11">
+        <v>14</v>
+      </c>
+      <c r="J19" s="12">
+        <v>14</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="O19">
         <v>5</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5">
-        <v>14</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>4</v>
-      </c>
-      <c r="L19">
-        <v>5</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20">
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20">
         <v>6</v>
       </c>
-      <c r="C20">
+      <c r="N20">
         <v>7</v>
       </c>
-      <c r="D20">
+      <c r="O20">
         <v>8</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="5">
-        <v>15</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="1">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>6</v>
-      </c>
-      <c r="K20">
-        <v>7</v>
-      </c>
-      <c r="L20">
-        <v>8</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
         <v>3</v>
       </c>
-      <c r="B21">
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="1">
+        <v>3</v>
+      </c>
+      <c r="M21">
         <v>9</v>
       </c>
-      <c r="C21">
+      <c r="N21">
         <v>10</v>
       </c>
-      <c r="D21">
+      <c r="O21">
         <v>11</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="1">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>9</v>
-      </c>
-      <c r="K21">
-        <v>10</v>
-      </c>
-      <c r="L21">
-        <v>11</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5">
         <v>4</v>
       </c>
-      <c r="B22">
+      <c r="K22" s="2"/>
+      <c r="L22" s="1">
+        <v>4</v>
+      </c>
+      <c r="M22">
         <v>12</v>
       </c>
-      <c r="C22">
+      <c r="N22">
         <v>13</v>
       </c>
-      <c r="D22">
+      <c r="O22">
         <v>14</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="1">
-        <v>4</v>
-      </c>
-      <c r="J22">
-        <v>12</v>
-      </c>
-      <c r="K22">
-        <v>13</v>
-      </c>
-      <c r="L22">
-        <v>14</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8</v>
+      </c>
+      <c r="F23" s="5">
+        <v>9</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -988,6 +1175,29 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SimpleTransposition/Дайте как я потуплю как следует.xlsx
+++ b/SimpleTransposition/Дайте как я потуплю как следует.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vit\Source\Repos\SymmetricCryptographicAlgorithms\SimpleTransposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A433E97-3346-40F8-BDAA-23E22F9B85A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A29862-4A7B-4A4D-834E-2199E9AE25CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9D4CFE4-FC4D-4AFF-BF38-49A1FA91009E}"/>
+    <workbookView xWindow="16215" yWindow="1230" windowWidth="12045" windowHeight="13530" xr2:uid="{B9D4CFE4-FC4D-4AFF-BF38-49A1FA91009E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>061728495</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>0516273849</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -631,7 +631,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -658,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -679,18 +679,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G19" si="0" xml:space="preserve"> 5 * MOD(I5,3) + TRUNC(I5/3)</f>
+        <f t="shared" ref="G5:G6" si="0" xml:space="preserve"> 5 * MOD(I5,3) + TRUNC(I5/3)</f>
         <v>0</v>
       </c>
       <c r="H5" s="3"/>
@@ -721,7 +721,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -796,7 +796,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
